--- a/data/trans_dic/CoTrAQ_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R2-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02303325180962504</v>
+        <v>0.02262515174567797</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0634488671958609</v>
+        <v>0.0656468497565682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02670490461063657</v>
+        <v>0.02675401066517072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08448052653697073</v>
+        <v>0.07627348237699291</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03099925912152001</v>
+        <v>0.03001198886713915</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08324931799906708</v>
+        <v>0.08256217467058644</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06944603550651153</v>
+        <v>0.07184828586040566</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1398807725060832</v>
+        <v>0.145982742555487</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1035229719730268</v>
+        <v>0.1015015027036553</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1792087465630435</v>
+        <v>0.1726667292785249</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07101037030709101</v>
+        <v>0.06771685211141872</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1410327977558641</v>
+        <v>0.1413287486148456</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05332870586524244</v>
+        <v>0.05248525045438623</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1483049748417981</v>
+        <v>0.1481878945862863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1079502034356973</v>
+        <v>0.1169212852310067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2664509061443009</v>
+        <v>0.2710899484479226</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08532058691943743</v>
+        <v>0.08448909411083486</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2200794199085067</v>
+        <v>0.2165000942867963</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1251577291097712</v>
+        <v>0.1249534238597456</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2622413153490175</v>
+        <v>0.2567176891470017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2503670859143072</v>
+        <v>0.2477693738631175</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4059375876111868</v>
+        <v>0.415223690774409</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1558251271159196</v>
+        <v>0.1531171322596272</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3041980369846287</v>
+        <v>0.3034945007428524</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06043041499420541</v>
+        <v>0.05998805134123718</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1307729325316262</v>
+        <v>0.1253785240414369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02999100275642264</v>
+        <v>0.0292118431938869</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06026175858256523</v>
+        <v>0.0613571786062977</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1025057843120658</v>
+        <v>0.1015176495114682</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1354899471045781</v>
+        <v>0.1343722273062717</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2395925171014215</v>
+        <v>0.2363022877017615</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.13336672415642</v>
+        <v>0.1332022818667427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1015584024408677</v>
+        <v>0.09743763801935054</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1227750246727768</v>
+        <v>0.1206684422141682</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1948617263310017</v>
+        <v>0.188193571908758</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1540417873827793</v>
+        <v>0.1518912190990874</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2521156467451675</v>
+        <v>0.2517477371391602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1557646396974024</v>
+        <v>0.1521921067767696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2725150660283033</v>
+        <v>0.2759287757576416</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1617772252907907</v>
+        <v>0.1644896851405308</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2709503034927846</v>
+        <v>0.2708367333531005</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2297491285559824</v>
+        <v>0.2302172281084531</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3366478448256661</v>
+        <v>0.3330041429957829</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2534174054920855</v>
+        <v>0.2484274547911183</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3640458026028321</v>
+        <v>0.3661621097947637</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2229621744423045</v>
+        <v>0.2261877749817937</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3304859835754186</v>
+        <v>0.3337393610166852</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2535439188374389</v>
+        <v>0.2462999021781663</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3872334292993043</v>
+        <v>0.3836268814730575</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2409752061648072</v>
+        <v>0.2396169375445077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3866106024895631</v>
+        <v>0.3892815838423335</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2685421142069896</v>
+        <v>0.260139908252819</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4126761705286275</v>
+        <v>0.4031744677582212</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4171505061326486</v>
+        <v>0.4054860465323298</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.533446470597288</v>
+        <v>0.5283554745626139</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3938582899945716</v>
+        <v>0.3920917424098386</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5216324185052172</v>
+        <v>0.5252436667811436</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3778118447519379</v>
+        <v>0.3746922352977495</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.51559428995583</v>
+        <v>0.5098209260409425</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2594486041582725</v>
+        <v>0.2628605376623983</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2442345787764788</v>
+        <v>0.243974431852603</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3159253514609521</v>
+        <v>0.3178616538183013</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2794682591291431</v>
+        <v>0.2790037478403518</v>
       </c>
     </row>
     <row r="22">
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6814</v>
+        <v>6693</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17515</v>
+        <v>18122</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5025</v>
+        <v>5034</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18094</v>
+        <v>16336</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15004</v>
+        <v>14526</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>40811</v>
+        <v>40474</v>
       </c>
     </row>
     <row r="7">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20545</v>
+        <v>21255</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38615</v>
+        <v>40299</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19480</v>
+        <v>19100</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38382</v>
+        <v>36981</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>34370</v>
+        <v>32776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>69138</v>
+        <v>69283</v>
       </c>
     </row>
     <row r="8">
@@ -1382,22 +1382,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13309</v>
+        <v>13099</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36073</v>
+        <v>36045</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16463</v>
+        <v>17831</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>50406</v>
+        <v>51284</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>34305</v>
+        <v>33970</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>95165</v>
+        <v>93617</v>
       </c>
     </row>
     <row r="11">
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31235</v>
+        <v>31185</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63787</v>
+        <v>62443</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38181</v>
+        <v>37785</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>76794</v>
+        <v>78550</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>62652</v>
+        <v>61564</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>131539</v>
+        <v>131235</v>
       </c>
     </row>
     <row r="12">
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16654</v>
+        <v>16532</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28289</v>
+        <v>27123</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3196</v>
+        <v>3113</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23029</v>
+        <v>23447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28850</v>
+        <v>28571</v>
       </c>
     </row>
     <row r="15">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37340</v>
+        <v>37032</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51830</v>
+        <v>51118</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14210</v>
+        <v>14193</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6613</v>
+        <v>6345</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46918</v>
+        <v>46113</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54842</v>
+        <v>52966</v>
       </c>
     </row>
     <row r="16">
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>63056</v>
+        <v>62175</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>122957</v>
+        <v>122778</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44517</v>
+        <v>43496</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>99452</v>
+        <v>100698</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>112457</v>
+        <v>114343</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>231024</v>
+        <v>230927</v>
       </c>
     </row>
     <row r="19">
@@ -1624,22 +1624,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>94046</v>
+        <v>94237</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>164183</v>
+        <v>162406</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>72426</v>
+        <v>71000</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>132856</v>
+        <v>133628</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>154989</v>
+        <v>157232</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>281786</v>
+        <v>284560</v>
       </c>
     </row>
     <row r="20">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36900</v>
+        <v>35845</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>74745</v>
+        <v>74048</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>40658</v>
+        <v>40428</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>76402</v>
+        <v>76929</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>84391</v>
+        <v>81751</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>161208</v>
+        <v>157496</v>
       </c>
     </row>
     <row r="23">
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60710</v>
+        <v>59012</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102967</v>
+        <v>101984</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>66452</v>
+        <v>66154</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>103084</v>
+        <v>103798</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>118730</v>
+        <v>117750</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>201412</v>
+        <v>199156</v>
       </c>
     </row>
     <row r="24">
@@ -1814,22 +1814,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>267499</v>
+        <v>271017</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>597731</v>
+        <v>597094</v>
       </c>
     </row>
     <row r="27">
@@ -1840,22 +1840,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>325728</v>
+        <v>327725</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>683961</v>
+        <v>682824</v>
       </c>
     </row>
     <row r="28">
